--- a/Project2/result.xlsx
+++ b/Project2/result.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shadow\Documents\ENGR544_LCA\Project2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shado\OneDrive\Documents\ENGR544\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5F7A39-62CD-4228-A604-05FA4708611C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="588" activeTab="5" xr2:uid="{26CC7503-3FB1-42B5-9F54-B7A328FCF1A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="588" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Facilities" sheetId="7" r:id="rId1"/>
@@ -19,8 +18,9 @@
     <sheet name="Wfdw" sheetId="4" r:id="rId4"/>
     <sheet name="Ydmw" sheetId="5" r:id="rId5"/>
     <sheet name="Xmrw" sheetId="1" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="45">
   <si>
     <t>Value</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -140,14 +140,87 @@
   </si>
   <si>
     <t>S Supplier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rent/year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Sales/year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initial Investment</t>
+  </si>
+  <si>
+    <t>Initial Investment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monthly Cost</t>
+  </si>
+  <si>
+    <t>Monthly Cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monthly Sales</t>
+  </si>
+  <si>
+    <t>Monthly Sales</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 stalls</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 stalls</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verify total cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PV</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="181" formatCode="0.000%"/>
+    <numFmt numFmtId="186" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +265,14 @@
       <name val="等线"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -215,15 +296,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -242,10 +326,20 @@
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -576,22 +670,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A818C1-7B39-4349-BBAC-C6EFB0D97EE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
@@ -706,19 +800,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD225599-5105-4893-A64E-32A056929531}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -910,18 +1004,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC225DFB-B7B0-4549-BDA1-69716DAD5C45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1282,18 +1376,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88BCA31-53B1-41CC-B5AC-1C91AAF181B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A2:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1738,18 +1832,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2A4E5D-8B2D-4694-8214-CE99801CD81B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A36" sqref="A36:D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2334,18 +2428,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F98313-0CAD-44DC-9D7B-E7648D2324E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2815,4 +2909,243 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="A1:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="6">
+        <f>EXP(LN(1.03874)/12)-1</f>
+        <v>3.17239143204473E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>195202.63</v>
+      </c>
+      <c r="C2">
+        <v>173589.91</v>
+      </c>
+      <c r="D2">
+        <v>172595.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>42000</v>
+      </c>
+      <c r="C3">
+        <v>20500</v>
+      </c>
+      <c r="D3">
+        <v>19760</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>198000</v>
+      </c>
+      <c r="C4">
+        <v>198000</v>
+      </c>
+      <c r="D4">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>115000</v>
+      </c>
+      <c r="C5">
+        <v>115000</v>
+      </c>
+      <c r="D5">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <f>B8+B5</f>
+        <v>121683.55250000001</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:D7" si="0">C8+C5</f>
+        <v>119882.49249999999</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>119799.59166666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <f>(B2-B5)/12</f>
+        <v>6683.5525000000007</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:D8" si="1">(C2-C5)/12</f>
+        <v>4882.4925000000003</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>4799.5916666666672</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <f>B4/12</f>
+        <v>16500</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:D9" si="2">C4/12</f>
+        <v>16500</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>16500</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <f>B7+B8*11</f>
+        <v>195202.63</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:D10" si="3">C7+C8*11</f>
+        <v>173589.91</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>172595.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="7">
+        <f>B7</f>
+        <v>121683.55250000001</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" ref="C13:D13" si="4">C7</f>
+        <v>119882.49249999999</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="4"/>
+        <v>119799.59166666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="7">
+        <f>PV($G$1,11,-B8)</f>
+        <v>72138.715590969252</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" ref="C14:D14" si="5">PV($G$1,11,-C8)</f>
+        <v>52699.030617705233</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="5"/>
+        <v>51804.243057034815</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="7">
+        <f>PV($G$1,12,-B9)</f>
+        <v>193976.86517102629</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" ref="C15:D15" si="6">PV($G$1,12,-C9)</f>
+        <v>193976.86517102629</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="6"/>
+        <v>193976.86517102629</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="8">
+        <f>B15/(B13+B14)</f>
+        <v>1.0007976229025681</v>
+      </c>
+      <c r="C17" s="8">
+        <f t="shared" ref="C17:D17" si="7">C15/(C13+C14)</f>
+        <v>1.1239723793533152</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="7"/>
+        <v>1.1303760518134545</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>